--- a/secteur-action-publique/transition-ecologique/departements/barometre-resultats-transition-ecologique-departements-synthese.xlsx
+++ b/secteur-action-publique/transition-ecologique/departements/barometre-resultats-transition-ecologique-departements-synthese.xlsx
@@ -221,7 +221,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>2018-03-31</t>
+    <t>2018-01-31</t>
   </si>
   <si>
     <t>14737.0</t>
